--- a/DynamicTDD/Member Registration.xlsx
+++ b/DynamicTDD/Member Registration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="99">
   <si>
     <t xml:space="preserve">questionnaireId</t>
   </si>
@@ -415,14 +415,24 @@
   <si>
     <t xml:space="preserve">relation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Unstable Student Registration Form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentRegistration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLINE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -489,6 +499,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -560,7 +571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -601,7 +612,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,12 +738,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -880,7 +895,7 @@
       <c r="P2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="5" t="b">
+      <c r="S2" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -942,7 +957,7 @@
       <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="5" t="b">
+      <c r="S3" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -994,7 +1009,7 @@
       <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -1003,10 +1018,10 @@
       <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="5" t="b">
+      <c r="S4" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1054,29 +1069,29 @@
       <c r="J5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="5" t="b">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="6" t="n">
@@ -1117,33 +1132,33 @@
       <c r="J6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>48</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="5" t="b">
+      <c r="S6" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="5" t="n">
@@ -1181,13 +1196,13 @@
       <c r="I7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="16" t="s">
         <v>54</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -1196,17 +1211,17 @@
       <c r="O7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="5" t="b">
+      <c r="S7" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="13" t="s">
         <v>57</v>
       </c>
       <c r="V7" s="5" t="n">
@@ -1250,7 +1265,7 @@
       <c r="L8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="16" t="s">
         <v>60</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1259,10 +1274,10 @@
       <c r="O8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="5" t="b">
+      <c r="S8" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1322,10 +1337,10 @@
       <c r="O9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="5" t="b">
+      <c r="S9" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1385,10 +1400,10 @@
       <c r="O10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="5" t="b">
+      <c r="S10" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1448,7 +1463,7 @@
       <c r="P11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="5" t="b">
+      <c r="S11" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1487,7 +1502,7 @@
       <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="15" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -1508,14 +1523,14 @@
       <c r="P12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="5" t="b">
+      <c r="S12" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="U12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="V12" s="5" t="n">
@@ -1568,14 +1583,14 @@
       <c r="P13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="5" t="b">
+      <c r="S13" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="5" t="n">
@@ -1607,7 +1622,7 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="15" t="n">
         <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -1628,14 +1643,14 @@
       <c r="P14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="5" t="b">
+      <c r="S14" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="V14" s="5" t="n">
@@ -1688,14 +1703,14 @@
       <c r="P15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="5" t="b">
+      <c r="S15" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="14" t="s">
+      <c r="U15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="5" t="n">
@@ -1727,7 +1742,7 @@
       <c r="G16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="14" t="n">
+      <c r="H16" s="15" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1748,14 +1763,14 @@
       <c r="P16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="5" t="b">
+      <c r="S16" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="14" t="s">
+      <c r="U16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="V16" s="5" t="n">
@@ -1787,7 +1802,7 @@
       <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="15" t="n">
         <v>6</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1799,7 +1814,7 @@
       <c r="L17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -1808,17 +1823,17 @@
       <c r="O17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="5" t="b">
+      <c r="S17" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14" t="n">
+      <c r="T17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15" t="n">
         <v>6</v>
       </c>
       <c r="V17" s="5" t="n">
@@ -1850,7 +1865,7 @@
       <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="15" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -1871,17 +1886,17 @@
       <c r="O18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="5" t="b">
+      <c r="S18" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="14" t="s">
+      <c r="U18" s="15" t="s">
         <v>87</v>
       </c>
       <c r="V18" s="5" t="n">
@@ -1913,7 +1928,7 @@
       <c r="G19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="15" t="n">
         <v>7</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -1937,14 +1952,14 @@
       <c r="P19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="5" t="b">
+      <c r="S19" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="T19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="U19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="V19" s="5" t="n">
@@ -1976,7 +1991,7 @@
       <c r="G20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="15" t="n">
         <v>7</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -1997,14 +2012,14 @@
       <c r="P20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="5" t="b">
+      <c r="S20" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="14" t="s">
+      <c r="U20" s="15" t="s">
         <v>70</v>
       </c>
       <c r="V20" s="5" t="n">
@@ -2036,7 +2051,7 @@
       <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="15" t="n">
         <v>7</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -2057,14 +2072,14 @@
       <c r="P21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="5" t="b">
+      <c r="S21" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="U21" s="14" t="s">
+      <c r="U21" s="15" t="s">
         <v>70</v>
       </c>
       <c r="V21" s="5" t="n">
@@ -2075,2882 +2090,4051 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="17"/>
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="17"/>
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="17"/>
+      <c r="A24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="17"/>
+      <c r="A25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="17"/>
+      <c r="A26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P27" s="17"/>
+      <c r="A27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P28" s="17"/>
+      <c r="A28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P29" s="17"/>
+      <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P30" s="17"/>
+      <c r="A30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P31" s="17"/>
+      <c r="A31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P32" s="17"/>
+      <c r="A32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P33" s="17"/>
+      <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P34" s="17"/>
+      <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P35" s="17"/>
+      <c r="A35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P36" s="17"/>
+      <c r="A36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P37" s="17"/>
+      <c r="A37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P38" s="17"/>
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S38" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P39" s="17"/>
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P40" s="17"/>
+      <c r="A40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P41" s="17"/>
+      <c r="A41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P43" s="17"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P44" s="17"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P45" s="17"/>
+      <c r="P45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P46" s="17"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P47" s="17"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P48" s="17"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P49" s="17"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P50" s="17"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P51" s="17"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P52" s="17"/>
+      <c r="P52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P53" s="17"/>
+      <c r="P53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P54" s="17"/>
+      <c r="P54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P55" s="17"/>
+      <c r="P55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P56" s="17"/>
+      <c r="P56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P57" s="17"/>
+      <c r="P57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P58" s="17"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P59" s="17"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P60" s="17"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P61" s="17"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P62" s="17"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P63" s="17"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P64" s="17"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P65" s="17"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P66" s="17"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P67" s="17"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P68" s="17"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P69" s="17"/>
+      <c r="P69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P70" s="17"/>
+      <c r="P70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P71" s="17"/>
+      <c r="P71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P72" s="17"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P73" s="17"/>
+      <c r="P73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P74" s="17"/>
+      <c r="P74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P75" s="17"/>
+      <c r="P75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P76" s="17"/>
+      <c r="P76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P77" s="17"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P78" s="17"/>
+      <c r="P78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P79" s="17"/>
+      <c r="P79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P80" s="17"/>
+      <c r="P80" s="18"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P81" s="17"/>
+      <c r="P81" s="18"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P82" s="17"/>
+      <c r="P82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P83" s="17"/>
+      <c r="P83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P84" s="17"/>
+      <c r="P84" s="18"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P85" s="17"/>
+      <c r="P85" s="18"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P86" s="17"/>
+      <c r="P86" s="18"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P87" s="17"/>
+      <c r="P87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P88" s="17"/>
+      <c r="P88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P89" s="17"/>
+      <c r="P89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P90" s="17"/>
+      <c r="P90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P91" s="17"/>
+      <c r="P91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P92" s="17"/>
+      <c r="P92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P93" s="17"/>
+      <c r="P93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P94" s="17"/>
+      <c r="P94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P95" s="17"/>
+      <c r="P95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P96" s="17"/>
+      <c r="P96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P97" s="17"/>
+      <c r="P97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P98" s="17"/>
+      <c r="P98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P99" s="17"/>
+      <c r="P99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P100" s="17"/>
+      <c r="P100" s="18"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P101" s="17"/>
+      <c r="P101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P102" s="17"/>
+      <c r="P102" s="18"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P103" s="17"/>
+      <c r="P103" s="18"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P104" s="17"/>
+      <c r="P104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P105" s="17"/>
+      <c r="P105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P106" s="17"/>
+      <c r="P106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P107" s="17"/>
+      <c r="P107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P108" s="17"/>
+      <c r="P108" s="18"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P109" s="17"/>
+      <c r="P109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P110" s="17"/>
+      <c r="P110" s="18"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P111" s="17"/>
+      <c r="P111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P112" s="17"/>
+      <c r="P112" s="18"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P113" s="17"/>
+      <c r="P113" s="18"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P114" s="17"/>
+      <c r="P114" s="18"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P115" s="17"/>
+      <c r="P115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P116" s="17"/>
+      <c r="P116" s="18"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P117" s="17"/>
+      <c r="P117" s="18"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P118" s="17"/>
+      <c r="P118" s="18"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P119" s="17"/>
+      <c r="P119" s="18"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P120" s="17"/>
+      <c r="P120" s="18"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P121" s="17"/>
+      <c r="P121" s="18"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P122" s="17"/>
+      <c r="P122" s="18"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P123" s="17"/>
+      <c r="P123" s="18"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P124" s="17"/>
+      <c r="P124" s="18"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P125" s="17"/>
+      <c r="P125" s="18"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P126" s="17"/>
+      <c r="P126" s="18"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P127" s="17"/>
+      <c r="P127" s="18"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P128" s="17"/>
+      <c r="P128" s="18"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P129" s="17"/>
+      <c r="P129" s="18"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P130" s="17"/>
+      <c r="P130" s="18"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P131" s="17"/>
+      <c r="P131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P132" s="17"/>
+      <c r="P132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P133" s="17"/>
+      <c r="P133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P134" s="17"/>
+      <c r="P134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P135" s="17"/>
+      <c r="P135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P136" s="17"/>
+      <c r="P136" s="18"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P137" s="17"/>
+      <c r="P137" s="18"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P138" s="17"/>
+      <c r="P138" s="18"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P139" s="17"/>
+      <c r="P139" s="18"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P140" s="17"/>
+      <c r="P140" s="18"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P141" s="17"/>
+      <c r="P141" s="18"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P142" s="17"/>
+      <c r="P142" s="18"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P143" s="17"/>
+      <c r="P143" s="18"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P144" s="17"/>
+      <c r="P144" s="18"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P145" s="17"/>
+      <c r="P145" s="18"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P146" s="17"/>
+      <c r="P146" s="18"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P147" s="17"/>
+      <c r="P147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P148" s="17"/>
+      <c r="P148" s="18"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P149" s="17"/>
+      <c r="P149" s="18"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P150" s="17"/>
+      <c r="P150" s="18"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P151" s="17"/>
+      <c r="P151" s="18"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P152" s="17"/>
+      <c r="P152" s="18"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P153" s="17"/>
+      <c r="P153" s="18"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P154" s="17"/>
+      <c r="P154" s="18"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P155" s="17"/>
+      <c r="P155" s="18"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P156" s="17"/>
+      <c r="P156" s="18"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P157" s="17"/>
+      <c r="P157" s="18"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P158" s="17"/>
+      <c r="P158" s="18"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P159" s="17"/>
+      <c r="P159" s="18"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P160" s="17"/>
+      <c r="P160" s="18"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P161" s="17"/>
+      <c r="P161" s="18"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P162" s="17"/>
+      <c r="P162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P163" s="17"/>
+      <c r="P163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P164" s="17"/>
+      <c r="P164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P165" s="17"/>
+      <c r="P165" s="18"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P166" s="17"/>
+      <c r="P166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P167" s="17"/>
+      <c r="P167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P168" s="17"/>
+      <c r="P168" s="18"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P169" s="17"/>
+      <c r="P169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P170" s="17"/>
+      <c r="P170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P171" s="17"/>
+      <c r="P171" s="18"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P172" s="17"/>
+      <c r="P172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P173" s="17"/>
+      <c r="P173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P174" s="17"/>
+      <c r="P174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P175" s="17"/>
+      <c r="P175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P176" s="17"/>
+      <c r="P176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P177" s="17"/>
+      <c r="P177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P178" s="17"/>
+      <c r="P178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P179" s="17"/>
+      <c r="P179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P180" s="17"/>
+      <c r="P180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P181" s="17"/>
+      <c r="P181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P182" s="17"/>
+      <c r="P182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P183" s="17"/>
+      <c r="P183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P184" s="17"/>
+      <c r="P184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P185" s="17"/>
+      <c r="P185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P186" s="17"/>
+      <c r="P186" s="18"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P187" s="17"/>
+      <c r="P187" s="18"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P188" s="17"/>
+      <c r="P188" s="18"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P189" s="17"/>
+      <c r="P189" s="18"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P190" s="17"/>
+      <c r="P190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P191" s="17"/>
+      <c r="P191" s="18"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P192" s="17"/>
+      <c r="P192" s="18"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P193" s="17"/>
+      <c r="P193" s="18"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P194" s="17"/>
+      <c r="P194" s="18"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P195" s="17"/>
+      <c r="P195" s="18"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P196" s="17"/>
+      <c r="P196" s="18"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P197" s="17"/>
+      <c r="P197" s="18"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P198" s="17"/>
+      <c r="P198" s="18"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P199" s="17"/>
+      <c r="P199" s="18"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P200" s="17"/>
+      <c r="P200" s="18"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P201" s="17"/>
+      <c r="P201" s="19"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P202" s="17"/>
+      <c r="P202" s="19"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P203" s="17"/>
+      <c r="P203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P204" s="17"/>
+      <c r="P204" s="19"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P205" s="17"/>
+      <c r="P205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P206" s="18"/>
+      <c r="P206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P207" s="18"/>
+      <c r="P207" s="19"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P208" s="18"/>
+      <c r="P208" s="19"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P209" s="18"/>
+      <c r="P209" s="19"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P210" s="18"/>
+      <c r="P210" s="19"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P211" s="18"/>
+      <c r="P211" s="19"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P212" s="18"/>
+      <c r="P212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P213" s="18"/>
+      <c r="P213" s="19"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P214" s="18"/>
+      <c r="P214" s="19"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P215" s="18"/>
+      <c r="P215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P216" s="18"/>
+      <c r="P216" s="19"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P217" s="18"/>
+      <c r="P217" s="19"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P218" s="18"/>
+      <c r="P218" s="19"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P219" s="18"/>
+      <c r="P219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P220" s="18"/>
+      <c r="P220" s="19"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P221" s="18"/>
+      <c r="P221" s="19"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P222" s="18"/>
+      <c r="P222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P223" s="18"/>
+      <c r="P223" s="19"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P224" s="18"/>
+      <c r="P224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P225" s="18"/>
+      <c r="P225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P226" s="18"/>
+      <c r="P226" s="19"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P227" s="18"/>
+      <c r="P227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P228" s="18"/>
+      <c r="P228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P229" s="18"/>
+      <c r="P229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P230" s="18"/>
+      <c r="P230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P231" s="18"/>
+      <c r="P231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P232" s="18"/>
+      <c r="P232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P233" s="18"/>
+      <c r="P233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P234" s="18"/>
+      <c r="P234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P235" s="18"/>
+      <c r="P235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P236" s="18"/>
+      <c r="P236" s="19"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P237" s="18"/>
+      <c r="P237" s="19"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P238" s="18"/>
+      <c r="P238" s="19"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P239" s="18"/>
+      <c r="P239" s="19"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P240" s="18"/>
+      <c r="P240" s="19"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P241" s="18"/>
+      <c r="P241" s="19"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P242" s="18"/>
+      <c r="P242" s="19"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P243" s="18"/>
+      <c r="P243" s="19"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P244" s="18"/>
+      <c r="P244" s="19"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P245" s="18"/>
+      <c r="P245" s="19"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P246" s="18"/>
+      <c r="P246" s="19"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P247" s="18"/>
+      <c r="P247" s="19"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P248" s="18"/>
+      <c r="P248" s="19"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P249" s="18"/>
+      <c r="P249" s="19"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P250" s="18"/>
+      <c r="P250" s="19"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P251" s="18"/>
+      <c r="P251" s="19"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P252" s="18"/>
+      <c r="P252" s="19"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P253" s="18"/>
+      <c r="P253" s="19"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P254" s="18"/>
+      <c r="P254" s="19"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P255" s="18"/>
+      <c r="P255" s="19"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P256" s="18"/>
+      <c r="P256" s="19"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P257" s="18"/>
+      <c r="P257" s="19"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P258" s="18"/>
+      <c r="P258" s="19"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P259" s="18"/>
+      <c r="P259" s="19"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P260" s="18"/>
+      <c r="P260" s="19"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P261" s="18"/>
+      <c r="P261" s="19"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P262" s="18"/>
+      <c r="P262" s="19"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P263" s="18"/>
+      <c r="P263" s="19"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P264" s="18"/>
+      <c r="P264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P265" s="18"/>
+      <c r="P265" s="19"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P266" s="18"/>
+      <c r="P266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P267" s="18"/>
+      <c r="P267" s="19"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P268" s="18"/>
+      <c r="P268" s="19"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P269" s="18"/>
+      <c r="P269" s="19"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P270" s="18"/>
+      <c r="P270" s="19"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P271" s="18"/>
+      <c r="P271" s="19"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P272" s="18"/>
+      <c r="P272" s="19"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P273" s="18"/>
+      <c r="P273" s="19"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P274" s="18"/>
+      <c r="P274" s="19"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P275" s="18"/>
+      <c r="P275" s="19"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P276" s="18"/>
+      <c r="P276" s="19"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P277" s="18"/>
+      <c r="P277" s="19"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P278" s="18"/>
+      <c r="P278" s="19"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P279" s="18"/>
+      <c r="P279" s="19"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P280" s="18"/>
+      <c r="P280" s="19"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P281" s="18"/>
+      <c r="P281" s="19"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P282" s="18"/>
+      <c r="P282" s="19"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P283" s="18"/>
+      <c r="P283" s="19"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P284" s="18"/>
+      <c r="P284" s="19"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P285" s="18"/>
+      <c r="P285" s="19"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P286" s="18"/>
+      <c r="P286" s="19"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P287" s="18"/>
+      <c r="P287" s="19"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P288" s="18"/>
+      <c r="P288" s="19"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P289" s="18"/>
+      <c r="P289" s="19"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P290" s="18"/>
+      <c r="P290" s="19"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P291" s="18"/>
+      <c r="P291" s="19"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P292" s="18"/>
+      <c r="P292" s="19"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P293" s="18"/>
+      <c r="P293" s="19"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P294" s="18"/>
+      <c r="P294" s="19"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P295" s="18"/>
+      <c r="P295" s="19"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P296" s="18"/>
+      <c r="P296" s="19"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P297" s="18"/>
+      <c r="P297" s="19"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P298" s="18"/>
+      <c r="P298" s="19"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P299" s="18"/>
+      <c r="P299" s="19"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P300" s="18"/>
+      <c r="P300" s="19"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P301" s="18"/>
+      <c r="P301" s="19"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P302" s="18"/>
+      <c r="P302" s="19"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P303" s="18"/>
+      <c r="P303" s="19"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P304" s="18"/>
+      <c r="P304" s="19"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P305" s="18"/>
+      <c r="P305" s="19"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P306" s="18"/>
+      <c r="P306" s="19"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P307" s="18"/>
+      <c r="P307" s="19"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P308" s="18"/>
+      <c r="P308" s="19"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P309" s="18"/>
+      <c r="P309" s="19"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P310" s="18"/>
+      <c r="P310" s="19"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P311" s="18"/>
+      <c r="P311" s="19"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P312" s="18"/>
+      <c r="P312" s="19"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P313" s="18"/>
+      <c r="P313" s="19"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P314" s="18"/>
+      <c r="P314" s="19"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P315" s="18"/>
+      <c r="P315" s="19"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P316" s="18"/>
+      <c r="P316" s="19"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P317" s="18"/>
+      <c r="P317" s="19"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P318" s="18"/>
+      <c r="P318" s="19"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P319" s="18"/>
+      <c r="P319" s="19"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P320" s="18"/>
+      <c r="P320" s="19"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P321" s="18"/>
+      <c r="P321" s="19"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P322" s="18"/>
+      <c r="P322" s="19"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P323" s="18"/>
+      <c r="P323" s="19"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P324" s="18"/>
+      <c r="P324" s="19"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P325" s="18"/>
+      <c r="P325" s="19"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P326" s="18"/>
+      <c r="P326" s="19"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P327" s="18"/>
+      <c r="P327" s="19"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P328" s="18"/>
+      <c r="P328" s="19"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P329" s="18"/>
+      <c r="P329" s="19"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P330" s="18"/>
+      <c r="P330" s="19"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P331" s="18"/>
+      <c r="P331" s="19"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P332" s="18"/>
+      <c r="P332" s="19"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P333" s="18"/>
+      <c r="P333" s="19"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P334" s="18"/>
+      <c r="P334" s="19"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P335" s="18"/>
+      <c r="P335" s="19"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P336" s="18"/>
+      <c r="P336" s="19"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P337" s="18"/>
+      <c r="P337" s="19"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P338" s="18"/>
+      <c r="P338" s="19"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P339" s="18"/>
+      <c r="P339" s="19"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P340" s="18"/>
+      <c r="P340" s="19"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P341" s="18"/>
+      <c r="P341" s="19"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P342" s="18"/>
+      <c r="P342" s="19"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P343" s="18"/>
+      <c r="P343" s="19"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P344" s="18"/>
+      <c r="P344" s="19"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P345" s="18"/>
+      <c r="P345" s="19"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P346" s="18"/>
+      <c r="P346" s="19"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P347" s="18"/>
+      <c r="P347" s="19"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P348" s="18"/>
+      <c r="P348" s="19"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P349" s="18"/>
+      <c r="P349" s="19"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P350" s="18"/>
+      <c r="P350" s="19"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P351" s="18"/>
+      <c r="P351" s="19"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P352" s="18"/>
+      <c r="P352" s="19"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P353" s="18"/>
+      <c r="P353" s="19"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P354" s="18"/>
+      <c r="P354" s="19"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P355" s="18"/>
+      <c r="P355" s="19"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P356" s="18"/>
+      <c r="P356" s="19"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P357" s="18"/>
+      <c r="P357" s="19"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P358" s="18"/>
+      <c r="P358" s="19"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P359" s="18"/>
+      <c r="P359" s="19"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P360" s="18"/>
+      <c r="P360" s="19"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P361" s="18"/>
+      <c r="P361" s="19"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P362" s="18"/>
+      <c r="P362" s="19"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P363" s="18"/>
+      <c r="P363" s="19"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P364" s="18"/>
+      <c r="P364" s="19"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P365" s="18"/>
+      <c r="P365" s="19"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P366" s="18"/>
+      <c r="P366" s="19"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P367" s="18"/>
+      <c r="P367" s="19"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P368" s="18"/>
+      <c r="P368" s="19"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P369" s="18"/>
+      <c r="P369" s="19"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P370" s="18"/>
+      <c r="P370" s="19"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P371" s="18"/>
+      <c r="P371" s="19"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P372" s="18"/>
+      <c r="P372" s="19"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P373" s="18"/>
+      <c r="P373" s="19"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P374" s="18"/>
+      <c r="P374" s="19"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P375" s="18"/>
+      <c r="P375" s="19"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P376" s="18"/>
+      <c r="P376" s="19"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P377" s="18"/>
+      <c r="P377" s="19"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P378" s="18"/>
+      <c r="P378" s="19"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P379" s="18"/>
+      <c r="P379" s="19"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P380" s="18"/>
+      <c r="P380" s="19"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P381" s="18"/>
+      <c r="P381" s="19"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P382" s="18"/>
+      <c r="P382" s="19"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P383" s="18"/>
+      <c r="P383" s="19"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P384" s="18"/>
+      <c r="P384" s="19"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P385" s="18"/>
+      <c r="P385" s="19"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P386" s="18"/>
+      <c r="P386" s="19"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P387" s="18"/>
+      <c r="P387" s="19"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P388" s="18"/>
+      <c r="P388" s="19"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P389" s="18"/>
+      <c r="P389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P390" s="18"/>
+      <c r="P390" s="19"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P391" s="18"/>
+      <c r="P391" s="19"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P392" s="18"/>
+      <c r="P392" s="19"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P393" s="18"/>
+      <c r="P393" s="19"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P394" s="18"/>
+      <c r="P394" s="19"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P395" s="18"/>
+      <c r="P395" s="19"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P396" s="18"/>
+      <c r="P396" s="19"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P397" s="18"/>
+      <c r="P397" s="19"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P398" s="18"/>
+      <c r="P398" s="19"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P399" s="18"/>
+      <c r="P399" s="19"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P400" s="18"/>
+      <c r="P400" s="19"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P401" s="18"/>
+      <c r="P401" s="19"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P402" s="18"/>
+      <c r="P402" s="19"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P403" s="18"/>
+      <c r="P403" s="19"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P404" s="18"/>
+      <c r="P404" s="19"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P405" s="18"/>
+      <c r="P405" s="19"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P406" s="18"/>
+      <c r="P406" s="19"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P407" s="18"/>
+      <c r="P407" s="19"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P408" s="18"/>
+      <c r="P408" s="19"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P409" s="18"/>
+      <c r="P409" s="19"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P410" s="18"/>
+      <c r="P410" s="19"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P411" s="18"/>
+      <c r="P411" s="19"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P412" s="18"/>
+      <c r="P412" s="19"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P413" s="18"/>
+      <c r="P413" s="19"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P414" s="18"/>
+      <c r="P414" s="19"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P415" s="18"/>
+      <c r="P415" s="19"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P416" s="18"/>
+      <c r="P416" s="19"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P417" s="18"/>
+      <c r="P417" s="19"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P418" s="18"/>
+      <c r="P418" s="19"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P419" s="18"/>
+      <c r="P419" s="19"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P420" s="18"/>
+      <c r="P420" s="19"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P421" s="18"/>
+      <c r="P421" s="19"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P422" s="18"/>
+      <c r="P422" s="19"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P423" s="18"/>
+      <c r="P423" s="19"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P424" s="18"/>
+      <c r="P424" s="19"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P425" s="18"/>
+      <c r="P425" s="19"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P426" s="18"/>
+      <c r="P426" s="19"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P427" s="18"/>
+      <c r="P427" s="19"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P428" s="18"/>
+      <c r="P428" s="19"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P429" s="18"/>
+      <c r="P429" s="19"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P430" s="18"/>
+      <c r="P430" s="19"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P431" s="18"/>
+      <c r="P431" s="19"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P432" s="18"/>
+      <c r="P432" s="19"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P433" s="18"/>
+      <c r="P433" s="19"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P434" s="18"/>
+      <c r="P434" s="19"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P435" s="18"/>
+      <c r="P435" s="19"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P436" s="18"/>
+      <c r="P436" s="19"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P437" s="18"/>
+      <c r="P437" s="19"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P438" s="18"/>
+      <c r="P438" s="19"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P439" s="18"/>
+      <c r="P439" s="19"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P440" s="18"/>
+      <c r="P440" s="19"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P441" s="18"/>
+      <c r="P441" s="19"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P442" s="18"/>
+      <c r="P442" s="19"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P443" s="18"/>
+      <c r="P443" s="19"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P444" s="18"/>
+      <c r="P444" s="19"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P445" s="18"/>
+      <c r="P445" s="19"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P446" s="18"/>
+      <c r="P446" s="19"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P447" s="18"/>
+      <c r="P447" s="19"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P448" s="18"/>
+      <c r="P448" s="19"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P449" s="18"/>
+      <c r="P449" s="19"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P450" s="18"/>
+      <c r="P450" s="19"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P451" s="18"/>
+      <c r="P451" s="19"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P452" s="18"/>
+      <c r="P452" s="19"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P453" s="18"/>
+      <c r="P453" s="19"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P454" s="18"/>
+      <c r="P454" s="19"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P455" s="18"/>
+      <c r="P455" s="19"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P456" s="18"/>
+      <c r="P456" s="19"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P457" s="18"/>
+      <c r="P457" s="19"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P458" s="18"/>
+      <c r="P458" s="19"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P459" s="18"/>
+      <c r="P459" s="19"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P460" s="18"/>
+      <c r="P460" s="19"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P461" s="18"/>
+      <c r="P461" s="19"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P462" s="18"/>
+      <c r="P462" s="19"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P463" s="18"/>
+      <c r="P463" s="19"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P464" s="18"/>
+      <c r="P464" s="19"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P465" s="18"/>
+      <c r="P465" s="19"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P466" s="18"/>
+      <c r="P466" s="19"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P467" s="18"/>
+      <c r="P467" s="19"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P468" s="18"/>
+      <c r="P468" s="19"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P469" s="18"/>
+      <c r="P469" s="19"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P470" s="18"/>
+      <c r="P470" s="19"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P471" s="18"/>
+      <c r="P471" s="19"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P472" s="18"/>
+      <c r="P472" s="19"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P473" s="18"/>
+      <c r="P473" s="19"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P474" s="18"/>
+      <c r="P474" s="19"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P475" s="18"/>
+      <c r="P475" s="19"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P476" s="18"/>
+      <c r="P476" s="19"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P477" s="18"/>
+      <c r="P477" s="19"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P478" s="18"/>
+      <c r="P478" s="19"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P479" s="18"/>
+      <c r="P479" s="19"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P480" s="18"/>
+      <c r="P480" s="19"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P481" s="18"/>
+      <c r="P481" s="19"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P482" s="18"/>
+      <c r="P482" s="19"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P483" s="18"/>
+      <c r="P483" s="19"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P484" s="18"/>
+      <c r="P484" s="19"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P485" s="18"/>
+      <c r="P485" s="19"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P486" s="18"/>
+      <c r="P486" s="19"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P487" s="18"/>
+      <c r="P487" s="19"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P488" s="18"/>
+      <c r="P488" s="19"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P489" s="18"/>
+      <c r="P489" s="19"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P490" s="18"/>
+      <c r="P490" s="19"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P491" s="18"/>
+      <c r="P491" s="19"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P492" s="18"/>
+      <c r="P492" s="19"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P493" s="18"/>
+      <c r="P493" s="19"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P494" s="18"/>
+      <c r="P494" s="19"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P495" s="18"/>
+      <c r="P495" s="19"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P496" s="18"/>
+      <c r="P496" s="19"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P497" s="18"/>
+      <c r="P497" s="19"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P498" s="18"/>
+      <c r="P498" s="19"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P499" s="18"/>
+      <c r="P499" s="19"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P500" s="18"/>
+      <c r="P500" s="19"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P501" s="18"/>
+      <c r="P501" s="19"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P502" s="18"/>
+      <c r="P502" s="19"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P503" s="18"/>
+      <c r="P503" s="19"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P504" s="18"/>
+      <c r="P504" s="19"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P505" s="18"/>
+      <c r="P505" s="19"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P506" s="18"/>
+      <c r="P506" s="19"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P507" s="18"/>
+      <c r="P507" s="19"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P508" s="18"/>
+      <c r="P508" s="19"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P509" s="18"/>
+      <c r="P509" s="19"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P510" s="18"/>
+      <c r="P510" s="19"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P511" s="18"/>
+      <c r="P511" s="19"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P512" s="18"/>
+      <c r="P512" s="19"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P513" s="18"/>
+      <c r="P513" s="19"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P514" s="18"/>
+      <c r="P514" s="19"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P515" s="18"/>
+      <c r="P515" s="19"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P516" s="18"/>
+      <c r="P516" s="19"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P517" s="18"/>
+      <c r="P517" s="19"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P518" s="18"/>
+      <c r="P518" s="19"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P519" s="18"/>
+      <c r="P519" s="19"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P520" s="18"/>
+      <c r="P520" s="19"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P521" s="18"/>
+      <c r="P521" s="19"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P522" s="18"/>
+      <c r="P522" s="19"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P523" s="18"/>
+      <c r="P523" s="19"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P524" s="18"/>
+      <c r="P524" s="19"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P525" s="18"/>
+      <c r="P525" s="19"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P526" s="18"/>
+      <c r="P526" s="19"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P527" s="18"/>
+      <c r="P527" s="19"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P528" s="18"/>
+      <c r="P528" s="19"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P529" s="18"/>
+      <c r="P529" s="19"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P530" s="18"/>
+      <c r="P530" s="19"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P531" s="18"/>
+      <c r="P531" s="19"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P532" s="18"/>
+      <c r="P532" s="19"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P533" s="18"/>
+      <c r="P533" s="19"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P534" s="18"/>
+      <c r="P534" s="19"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P535" s="18"/>
+      <c r="P535" s="19"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P536" s="18"/>
+      <c r="P536" s="19"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P537" s="18"/>
+      <c r="P537" s="19"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P538" s="18"/>
+      <c r="P538" s="19"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P539" s="18"/>
+      <c r="P539" s="19"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P540" s="18"/>
+      <c r="P540" s="19"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P541" s="18"/>
+      <c r="P541" s="19"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P542" s="18"/>
+      <c r="P542" s="19"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P543" s="18"/>
+      <c r="P543" s="19"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P544" s="18"/>
+      <c r="P544" s="19"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P545" s="18"/>
+      <c r="P545" s="19"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P546" s="18"/>
+      <c r="P546" s="19"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P547" s="18"/>
+      <c r="P547" s="19"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P548" s="18"/>
+      <c r="P548" s="19"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P549" s="18"/>
+      <c r="P549" s="19"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P550" s="18"/>
+      <c r="P550" s="19"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P551" s="18"/>
+      <c r="P551" s="19"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P552" s="18"/>
+      <c r="P552" s="19"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P553" s="18"/>
+      <c r="P553" s="19"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P554" s="18"/>
+      <c r="P554" s="19"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P555" s="18"/>
+      <c r="P555" s="19"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P556" s="18"/>
+      <c r="P556" s="19"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P557" s="18"/>
+      <c r="P557" s="19"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P558" s="18"/>
+      <c r="P558" s="19"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P559" s="18"/>
+      <c r="P559" s="19"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P560" s="18"/>
+      <c r="P560" s="19"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P561" s="18"/>
+      <c r="P561" s="19"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P562" s="18"/>
+      <c r="P562" s="19"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P563" s="18"/>
+      <c r="P563" s="19"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P564" s="18"/>
+      <c r="P564" s="19"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P565" s="18"/>
+      <c r="P565" s="19"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P566" s="18"/>
+      <c r="P566" s="19"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P567" s="18"/>
+      <c r="P567" s="19"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P568" s="18"/>
+      <c r="P568" s="19"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P569" s="18"/>
+      <c r="P569" s="19"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P570" s="18"/>
+      <c r="P570" s="19"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P571" s="18"/>
+      <c r="P571" s="19"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P572" s="18"/>
+      <c r="P572" s="19"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P573" s="18"/>
+      <c r="P573" s="19"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P574" s="18"/>
+      <c r="P574" s="19"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P575" s="18"/>
+      <c r="P575" s="19"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P576" s="18"/>
+      <c r="P576" s="19"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P577" s="18"/>
+      <c r="P577" s="19"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P578" s="18"/>
+      <c r="P578" s="19"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P579" s="18"/>
+      <c r="P579" s="19"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P580" s="18"/>
+      <c r="P580" s="19"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P581" s="18"/>
+      <c r="P581" s="19"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P582" s="18"/>
+      <c r="P582" s="19"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P583" s="18"/>
+      <c r="P583" s="19"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P584" s="18"/>
+      <c r="P584" s="19"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P585" s="18"/>
+      <c r="P585" s="19"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P586" s="18"/>
+      <c r="P586" s="19"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P587" s="18"/>
+      <c r="P587" s="19"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P588" s="18"/>
+      <c r="P588" s="19"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P589" s="18"/>
+      <c r="P589" s="19"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P590" s="18"/>
+      <c r="P590" s="19"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P591" s="18"/>
+      <c r="P591" s="19"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P592" s="18"/>
+      <c r="P592" s="19"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P593" s="18"/>
+      <c r="P593" s="19"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P594" s="18"/>
+      <c r="P594" s="19"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P595" s="18"/>
+      <c r="P595" s="19"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P596" s="18"/>
+      <c r="P596" s="19"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P597" s="18"/>
+      <c r="P597" s="19"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P598" s="18"/>
+      <c r="P598" s="19"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P599" s="18"/>
+      <c r="P599" s="19"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P600" s="18"/>
+      <c r="P600" s="19"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P601" s="18"/>
+      <c r="P601" s="19"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P602" s="18"/>
+      <c r="P602" s="19"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P603" s="18"/>
+      <c r="P603" s="19"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P604" s="18"/>
+      <c r="P604" s="19"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P605" s="18"/>
+      <c r="P605" s="19"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P606" s="18"/>
+      <c r="P606" s="19"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P607" s="18"/>
+      <c r="P607" s="19"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P608" s="18"/>
+      <c r="P608" s="19"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P609" s="18"/>
+      <c r="P609" s="19"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P610" s="18"/>
+      <c r="P610" s="19"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P611" s="18"/>
+      <c r="P611" s="19"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P612" s="18"/>
+      <c r="P612" s="19"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P613" s="18"/>
+      <c r="P613" s="19"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P614" s="18"/>
+      <c r="P614" s="19"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P615" s="18"/>
+      <c r="P615" s="19"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P616" s="18"/>
+      <c r="P616" s="19"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P617" s="18"/>
+      <c r="P617" s="19"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P618" s="18"/>
+      <c r="P618" s="19"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P619" s="18"/>
+      <c r="P619" s="19"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P620" s="18"/>
+      <c r="P620" s="19"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P621" s="18"/>
+      <c r="P621" s="19"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P622" s="18"/>
+      <c r="P622" s="19"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P623" s="18"/>
+      <c r="P623" s="19"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P624" s="18"/>
+      <c r="P624" s="19"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P625" s="18"/>
+      <c r="P625" s="19"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P626" s="18"/>
+      <c r="P626" s="19"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P627" s="18"/>
+      <c r="P627" s="19"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P628" s="18"/>
+      <c r="P628" s="19"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P629" s="18"/>
+      <c r="P629" s="19"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P630" s="18"/>
+      <c r="P630" s="19"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P631" s="18"/>
+      <c r="P631" s="19"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P632" s="18"/>
+      <c r="P632" s="19"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P633" s="18"/>
+      <c r="P633" s="19"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P634" s="18"/>
+      <c r="P634" s="19"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P635" s="18"/>
+      <c r="P635" s="19"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P636" s="18"/>
+      <c r="P636" s="19"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P637" s="18"/>
+      <c r="P637" s="19"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P638" s="18"/>
+      <c r="P638" s="19"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P639" s="18"/>
+      <c r="P639" s="19"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P640" s="18"/>
+      <c r="P640" s="19"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P641" s="18"/>
+      <c r="P641" s="19"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P642" s="18"/>
+      <c r="P642" s="19"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P643" s="18"/>
+      <c r="P643" s="19"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P644" s="18"/>
+      <c r="P644" s="19"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P645" s="18"/>
+      <c r="P645" s="19"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P646" s="18"/>
+      <c r="P646" s="19"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P647" s="18"/>
+      <c r="P647" s="19"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P648" s="18"/>
+      <c r="P648" s="19"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P649" s="18"/>
+      <c r="P649" s="19"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P650" s="18"/>
+      <c r="P650" s="19"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P651" s="18"/>
+      <c r="P651" s="19"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P652" s="18"/>
+      <c r="P652" s="19"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P653" s="18"/>
+      <c r="P653" s="19"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P654" s="18"/>
+      <c r="P654" s="19"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P655" s="18"/>
+      <c r="P655" s="19"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P656" s="18"/>
+      <c r="P656" s="19"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P657" s="18"/>
+      <c r="P657" s="19"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P658" s="18"/>
+      <c r="P658" s="19"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P659" s="18"/>
+      <c r="P659" s="19"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P660" s="18"/>
+      <c r="P660" s="19"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P661" s="18"/>
+      <c r="P661" s="19"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P662" s="18"/>
+      <c r="P662" s="19"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P663" s="18"/>
+      <c r="P663" s="19"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P664" s="18"/>
+      <c r="P664" s="19"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P665" s="18"/>
+      <c r="P665" s="19"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P666" s="18"/>
+      <c r="P666" s="19"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P667" s="18"/>
+      <c r="P667" s="19"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P668" s="18"/>
+      <c r="P668" s="19"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P669" s="18"/>
+      <c r="P669" s="19"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P670" s="18"/>
+      <c r="P670" s="19"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P671" s="18"/>
+      <c r="P671" s="19"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P672" s="18"/>
+      <c r="P672" s="19"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P673" s="18"/>
+      <c r="P673" s="19"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P674" s="18"/>
+      <c r="P674" s="19"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P675" s="18"/>
+      <c r="P675" s="19"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P676" s="18"/>
+      <c r="P676" s="19"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P677" s="18"/>
+      <c r="P677" s="19"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P678" s="18"/>
+      <c r="P678" s="19"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P679" s="18"/>
+      <c r="P679" s="19"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P680" s="18"/>
+      <c r="P680" s="19"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P681" s="18"/>
+      <c r="P681" s="19"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P682" s="18"/>
+      <c r="P682" s="19"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P683" s="18"/>
+      <c r="P683" s="19"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P684" s="18"/>
+      <c r="P684" s="19"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P685" s="18"/>
+      <c r="P685" s="19"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P686" s="18"/>
+      <c r="P686" s="19"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P687" s="18"/>
+      <c r="P687" s="19"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P688" s="18"/>
+      <c r="P688" s="19"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P689" s="18"/>
+      <c r="P689" s="19"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P690" s="18"/>
+      <c r="P690" s="19"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P691" s="18"/>
+      <c r="P691" s="19"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P692" s="18"/>
+      <c r="P692" s="19"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P693" s="18"/>
+      <c r="P693" s="19"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P694" s="18"/>
+      <c r="P694" s="19"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P695" s="18"/>
+      <c r="P695" s="19"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P696" s="18"/>
+      <c r="P696" s="19"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P697" s="18"/>
+      <c r="P697" s="19"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P698" s="18"/>
+      <c r="P698" s="19"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P699" s="18"/>
+      <c r="P699" s="19"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P700" s="18"/>
+      <c r="P700" s="19"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P701" s="18"/>
+      <c r="P701" s="19"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P702" s="18"/>
+      <c r="P702" s="19"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P703" s="18"/>
+      <c r="P703" s="19"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P704" s="18"/>
+      <c r="P704" s="19"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P705" s="18"/>
+      <c r="P705" s="19"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P706" s="18"/>
+      <c r="P706" s="19"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P707" s="18"/>
+      <c r="P707" s="19"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P708" s="18"/>
+      <c r="P708" s="19"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P709" s="18"/>
+      <c r="P709" s="19"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P710" s="18"/>
+      <c r="P710" s="19"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P711" s="18"/>
+      <c r="P711" s="19"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P712" s="18"/>
+      <c r="P712" s="19"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P713" s="18"/>
+      <c r="P713" s="19"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P714" s="18"/>
+      <c r="P714" s="19"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P715" s="18"/>
+      <c r="P715" s="19"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P716" s="18"/>
+      <c r="P716" s="19"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P717" s="18"/>
+      <c r="P717" s="19"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P718" s="18"/>
+      <c r="P718" s="19"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P719" s="18"/>
+      <c r="P719" s="19"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P720" s="18"/>
+      <c r="P720" s="19"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P721" s="18"/>
+      <c r="P721" s="19"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P722" s="18"/>
+      <c r="P722" s="19"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P723" s="18"/>
+      <c r="P723" s="19"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P724" s="18"/>
+      <c r="P724" s="19"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P725" s="18"/>
+      <c r="P725" s="19"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P726" s="18"/>
+      <c r="P726" s="19"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P727" s="18"/>
+      <c r="P727" s="19"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P728" s="18"/>
+      <c r="P728" s="19"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P729" s="18"/>
+      <c r="P729" s="19"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P730" s="18"/>
+      <c r="P730" s="19"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P731" s="18"/>
+      <c r="P731" s="19"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P732" s="18"/>
+      <c r="P732" s="19"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P733" s="18"/>
+      <c r="P733" s="19"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P734" s="18"/>
+      <c r="P734" s="19"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P735" s="18"/>
+      <c r="P735" s="19"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P736" s="18"/>
+      <c r="P736" s="19"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P737" s="18"/>
+      <c r="P737" s="19"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P738" s="18"/>
+      <c r="P738" s="19"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P739" s="18"/>
+      <c r="P739" s="19"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P740" s="18"/>
+      <c r="P740" s="19"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P741" s="18"/>
+      <c r="P741" s="19"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P742" s="18"/>
+      <c r="P742" s="19"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P743" s="18"/>
+      <c r="P743" s="19"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P744" s="18"/>
+      <c r="P744" s="19"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P745" s="18"/>
+      <c r="P745" s="19"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P746" s="18"/>
+      <c r="P746" s="19"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P747" s="18"/>
+      <c r="P747" s="19"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P748" s="18"/>
+      <c r="P748" s="19"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P749" s="18"/>
+      <c r="P749" s="19"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P750" s="18"/>
+      <c r="P750" s="19"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P751" s="18"/>
+      <c r="P751" s="19"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P752" s="18"/>
+      <c r="P752" s="19"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P753" s="18"/>
+      <c r="P753" s="19"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P754" s="18"/>
+      <c r="P754" s="19"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P755" s="18"/>
+      <c r="P755" s="19"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P756" s="18"/>
+      <c r="P756" s="19"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P757" s="18"/>
+      <c r="P757" s="19"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P758" s="18"/>
+      <c r="P758" s="19"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P759" s="18"/>
+      <c r="P759" s="19"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P760" s="18"/>
+      <c r="P760" s="19"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P761" s="18"/>
+      <c r="P761" s="19"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P762" s="18"/>
+      <c r="P762" s="19"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P763" s="18"/>
+      <c r="P763" s="19"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P764" s="18"/>
+      <c r="P764" s="19"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P765" s="18"/>
+      <c r="P765" s="19"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P766" s="18"/>
+      <c r="P766" s="19"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P767" s="18"/>
+      <c r="P767" s="19"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P768" s="18"/>
+      <c r="P768" s="19"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P769" s="18"/>
+      <c r="P769" s="19"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P770" s="18"/>
+      <c r="P770" s="19"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P771" s="18"/>
+      <c r="P771" s="19"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P772" s="18"/>
+      <c r="P772" s="19"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P773" s="18"/>
+      <c r="P773" s="19"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P774" s="18"/>
+      <c r="P774" s="19"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P775" s="18"/>
+      <c r="P775" s="19"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P776" s="18"/>
+      <c r="P776" s="19"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P777" s="18"/>
+      <c r="P777" s="19"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P778" s="18"/>
+      <c r="P778" s="19"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P779" s="18"/>
+      <c r="P779" s="19"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P780" s="18"/>
+      <c r="P780" s="19"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P781" s="18"/>
+      <c r="P781" s="19"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P782" s="18"/>
+      <c r="P782" s="19"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P783" s="18"/>
+      <c r="P783" s="19"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P784" s="18"/>
+      <c r="P784" s="19"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P785" s="18"/>
+      <c r="P785" s="19"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P786" s="18"/>
+      <c r="P786" s="19"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P787" s="18"/>
+      <c r="P787" s="19"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P788" s="18"/>
+      <c r="P788" s="19"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P789" s="18"/>
+      <c r="P789" s="19"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P790" s="18"/>
+      <c r="P790" s="19"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P791" s="18"/>
+      <c r="P791" s="19"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P792" s="18"/>
+      <c r="P792" s="19"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P793" s="18"/>
+      <c r="P793" s="19"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P794" s="18"/>
+      <c r="P794" s="19"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P795" s="18"/>
+      <c r="P795" s="19"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P796" s="18"/>
+      <c r="P796" s="19"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P797" s="18"/>
+      <c r="P797" s="19"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P798" s="18"/>
+      <c r="P798" s="19"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P799" s="18"/>
+      <c r="P799" s="19"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P800" s="18"/>
+      <c r="P800" s="19"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P801" s="18"/>
+      <c r="P801" s="19"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P802" s="18"/>
+      <c r="P802" s="19"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P803" s="18"/>
+      <c r="P803" s="19"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P804" s="18"/>
+      <c r="P804" s="19"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P805" s="18"/>
+      <c r="P805" s="19"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P806" s="18"/>
+      <c r="P806" s="19"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P807" s="18"/>
+      <c r="P807" s="19"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P808" s="18"/>
+      <c r="P808" s="19"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P809" s="18"/>
+      <c r="P809" s="19"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P810" s="18"/>
+      <c r="P810" s="19"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P811" s="18"/>
+      <c r="P811" s="19"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P812" s="18"/>
+      <c r="P812" s="19"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P813" s="18"/>
+      <c r="P813" s="19"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P814" s="18"/>
+      <c r="P814" s="19"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P815" s="18"/>
+      <c r="P815" s="19"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P816" s="18"/>
+      <c r="P816" s="19"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P817" s="18"/>
+      <c r="P817" s="19"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P818" s="18"/>
+      <c r="P818" s="19"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P819" s="18"/>
+      <c r="P819" s="19"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P820" s="18"/>
+      <c r="P820" s="19"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P821" s="18"/>
+      <c r="P821" s="19"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P822" s="18"/>
+      <c r="P822" s="19"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P823" s="18"/>
+      <c r="P823" s="19"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P824" s="18"/>
+      <c r="P824" s="19"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P825" s="18"/>
+      <c r="P825" s="19"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P826" s="18"/>
+      <c r="P826" s="19"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P827" s="18"/>
+      <c r="P827" s="19"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P828" s="18"/>
+      <c r="P828" s="19"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P829" s="18"/>
+      <c r="P829" s="19"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P830" s="18"/>
+      <c r="P830" s="19"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P831" s="18"/>
+      <c r="P831" s="19"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P832" s="18"/>
+      <c r="P832" s="19"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P833" s="18"/>
+      <c r="P833" s="19"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P834" s="18"/>
+      <c r="P834" s="19"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P835" s="18"/>
+      <c r="P835" s="19"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P836" s="18"/>
+      <c r="P836" s="19"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P837" s="18"/>
+      <c r="P837" s="19"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P838" s="18"/>
+      <c r="P838" s="19"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P839" s="18"/>
+      <c r="P839" s="19"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P840" s="18"/>
+      <c r="P840" s="19"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P841" s="18"/>
+      <c r="P841" s="19"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P842" s="18"/>
+      <c r="P842" s="19"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P843" s="18"/>
+      <c r="P843" s="19"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P844" s="18"/>
+      <c r="P844" s="19"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P845" s="18"/>
+      <c r="P845" s="19"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P846" s="18"/>
+      <c r="P846" s="19"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P847" s="18"/>
+      <c r="P847" s="19"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P848" s="18"/>
+      <c r="P848" s="19"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P849" s="18"/>
+      <c r="P849" s="19"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P850" s="18"/>
+      <c r="P850" s="19"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P851" s="18"/>
+      <c r="P851" s="19"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P852" s="18"/>
+      <c r="P852" s="19"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P853" s="18"/>
+      <c r="P853" s="19"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P854" s="18"/>
+      <c r="P854" s="19"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P855" s="18"/>
+      <c r="P855" s="19"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P856" s="18"/>
+      <c r="P856" s="19"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P857" s="18"/>
+      <c r="P857" s="19"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P858" s="18"/>
+      <c r="P858" s="19"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P859" s="18"/>
+      <c r="P859" s="19"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P860" s="18"/>
+      <c r="P860" s="19"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P861" s="18"/>
+      <c r="P861" s="19"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P862" s="18"/>
+      <c r="P862" s="19"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P863" s="18"/>
+      <c r="P863" s="19"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P864" s="18"/>
+      <c r="P864" s="19"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P865" s="18"/>
+      <c r="P865" s="19"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P866" s="18"/>
+      <c r="P866" s="19"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P867" s="18"/>
+      <c r="P867" s="19"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P868" s="18"/>
+      <c r="P868" s="19"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P869" s="18"/>
+      <c r="P869" s="19"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P870" s="18"/>
+      <c r="P870" s="19"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P871" s="18"/>
+      <c r="P871" s="19"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P872" s="18"/>
+      <c r="P872" s="19"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P873" s="18"/>
+      <c r="P873" s="19"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P874" s="18"/>
+      <c r="P874" s="19"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P875" s="18"/>
+      <c r="P875" s="19"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P876" s="18"/>
+      <c r="P876" s="19"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P877" s="18"/>
+      <c r="P877" s="19"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P878" s="18"/>
+      <c r="P878" s="19"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P879" s="18"/>
+      <c r="P879" s="19"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P880" s="18"/>
+      <c r="P880" s="19"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P881" s="18"/>
+      <c r="P881" s="19"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P882" s="18"/>
+      <c r="P882" s="19"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P883" s="18"/>
+      <c r="P883" s="19"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P884" s="18"/>
+      <c r="P884" s="19"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P885" s="18"/>
+      <c r="P885" s="19"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P886" s="18"/>
+      <c r="P886" s="19"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P887" s="18"/>
+      <c r="P887" s="19"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P888" s="18"/>
+      <c r="P888" s="19"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P889" s="18"/>
+      <c r="P889" s="19"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P890" s="18"/>
+      <c r="P890" s="19"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P891" s="18"/>
+      <c r="P891" s="19"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P892" s="18"/>
+      <c r="P892" s="19"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P893" s="18"/>
+      <c r="P893" s="19"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P894" s="18"/>
+      <c r="P894" s="19"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P895" s="18"/>
+      <c r="P895" s="19"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P896" s="18"/>
+      <c r="P896" s="19"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P897" s="18"/>
+      <c r="P897" s="19"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P898" s="18"/>
+      <c r="P898" s="19"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P899" s="18"/>
+      <c r="P899" s="19"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P900" s="18"/>
+      <c r="P900" s="19"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P901" s="18"/>
+      <c r="P901" s="19"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P902" s="18"/>
+      <c r="P902" s="19"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P903" s="18"/>
+      <c r="P903" s="19"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P904" s="18"/>
+      <c r="P904" s="19"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P905" s="18"/>
+      <c r="P905" s="19"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P906" s="18"/>
+      <c r="P906" s="19"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P907" s="18"/>
+      <c r="P907" s="19"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P908" s="18"/>
+      <c r="P908" s="19"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P909" s="18"/>
+      <c r="P909" s="19"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P910" s="18"/>
+      <c r="P910" s="19"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P911" s="18"/>
+      <c r="P911" s="19"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P912" s="18"/>
+      <c r="P912" s="19"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P913" s="18"/>
+      <c r="P913" s="19"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P914" s="18"/>
+      <c r="P914" s="19"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P915" s="18"/>
+      <c r="P915" s="19"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P916" s="18"/>
+      <c r="P916" s="19"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P917" s="18"/>
+      <c r="P917" s="19"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P918" s="18"/>
+      <c r="P918" s="19"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P919" s="18"/>
+      <c r="P919" s="19"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P920" s="18"/>
+      <c r="P920" s="19"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P921" s="18"/>
+      <c r="P921" s="19"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P922" s="18"/>
+      <c r="P922" s="19"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P923" s="18"/>
+      <c r="P923" s="19"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P924" s="18"/>
+      <c r="P924" s="19"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P925" s="18"/>
+      <c r="P925" s="19"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P926" s="18"/>
+      <c r="P926" s="19"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P927" s="18"/>
+      <c r="P927" s="19"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P928" s="18"/>
+      <c r="P928" s="19"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P929" s="18"/>
+      <c r="P929" s="19"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P930" s="18"/>
+      <c r="P930" s="19"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P931" s="18"/>
+      <c r="P931" s="19"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P932" s="18"/>
+      <c r="P932" s="19"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P933" s="18"/>
+      <c r="P933" s="19"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P934" s="18"/>
+      <c r="P934" s="19"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P935" s="18"/>
+      <c r="P935" s="19"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P936" s="18"/>
+      <c r="P936" s="19"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P937" s="18"/>
+      <c r="P937" s="19"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P938" s="18"/>
+      <c r="P938" s="19"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P939" s="18"/>
+      <c r="P939" s="19"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P940" s="18"/>
+      <c r="P940" s="19"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P941" s="18"/>
+      <c r="P941" s="19"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P942" s="18"/>
+      <c r="P942" s="19"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P943" s="18"/>
+      <c r="P943" s="19"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P944" s="18"/>
+      <c r="P944" s="19"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P945" s="18"/>
+      <c r="P945" s="19"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P946" s="18"/>
+      <c r="P946" s="19"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P947" s="18"/>
+      <c r="P947" s="19"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P948" s="18"/>
+      <c r="P948" s="19"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P949" s="18"/>
+      <c r="P949" s="19"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P950" s="18"/>
+      <c r="P950" s="19"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P951" s="18"/>
+      <c r="P951" s="19"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P952" s="18"/>
+      <c r="P952" s="19"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P953" s="18"/>
+      <c r="P953" s="19"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P954" s="18"/>
+      <c r="P954" s="19"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P955" s="18"/>
+      <c r="P955" s="19"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P956" s="18"/>
+      <c r="P956" s="19"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P957" s="18"/>
+      <c r="P957" s="19"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P958" s="18"/>
+      <c r="P958" s="19"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P959" s="18"/>
+      <c r="P959" s="19"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P960" s="18"/>
+      <c r="P960" s="19"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P961" s="18"/>
+      <c r="P961" s="19"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P962" s="18"/>
+      <c r="P962" s="19"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P963" s="18"/>
+      <c r="P963" s="19"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P964" s="18"/>
+      <c r="P964" s="19"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P965" s="18"/>
+      <c r="P965" s="19"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P966" s="18"/>
+      <c r="P966" s="19"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P967" s="18"/>
+      <c r="P967" s="19"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P968" s="18"/>
+      <c r="P968" s="19"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P969" s="18"/>
+      <c r="P969" s="19"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P970" s="18"/>
+      <c r="P970" s="19"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P971" s="18"/>
+      <c r="P971" s="19"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P972" s="18"/>
+      <c r="P972" s="19"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P973" s="18"/>
+      <c r="P973" s="19"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P974" s="18"/>
+      <c r="P974" s="19"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P975" s="18"/>
-    </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P976" s="18"/>
-    </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P977" s="18"/>
-    </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P978" s="18"/>
-    </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P979" s="18"/>
-    </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P980" s="18"/>
-    </row>
+      <c r="P975" s="19"/>
+    </row>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4966,48 +6150,48 @@
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1000">
+  <conditionalFormatting sqref="E1:E995">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(#ref!))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="P1:P995">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(P1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="VALID INPUT" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B1:B21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="VALID INPUT" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B1:B41" type="list">
       <formula1>"SERVICE,QUEUE,SCHEDULE,CONSUMERCREATION,DEPARTMENT"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="O1:O21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="O1:O41" type="list">
       <formula1>"CONSUMER_ONLY,PROVIDER_ONLY,BOTH_CONSUMER_AND_PROVIDER"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D1:D21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D1:D41" type="list">
       <formula1>"ONLINE,WALKIN,PHONE-IN,ANY"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="P1:P980" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="P1:P975" type="list">
       <formula1>"plainText,list,bool,date,number,fileUpload,map,dataGrid"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E1:E21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E1:E41" type="list">
       <formula1>"BEFORE,DURING,AFTER"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="S1:S21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="S1:S41" type="list">
       <formula1>"true,false"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="N1:N21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="N1:N41" type="list">
       <formula1>"consumer,service"</formula1>
       <formula2>0</formula2>
     </dataValidation>
